--- a/Data/EC/NIT-9012560670.xlsx
+++ b/Data/EC/NIT-9012560670.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5115E302-1CBB-4D1E-8CC8-68C30853BAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F47AD2-8F94-42A7-8BB1-DA47D223701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{225A811D-3A40-4BB3-8DC6-BB8D19B0694E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F66153D-5652-437D-BDB5-3D8503CA7CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,61 +65,61 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45523211</t>
+  </si>
+  <si>
+    <t>KELLY NUÑEZ AVILA</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>1047388104</t>
   </si>
   <si>
     <t>ANA GABRIEL GAVALO EMITOLA</t>
   </si>
   <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>45523211</t>
-  </si>
-  <si>
-    <t>KELLY NUÑEZ AVILA</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -163,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4473B5-46A5-3B94-BDA6-CE18CB6E380D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8638F170-73FA-22BA-48FE-4FCC705480EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,28 +884,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93FB6AF-77D3-4E3E-93AB-6ED9A9AD1200}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D80E03-6765-4032-8FC9-B45F4863A22E}">
   <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -918,7 +918,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -929,7 +929,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -940,7 +940,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -951,8 +951,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -967,8 +967,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -983,8 +983,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -999,8 +999,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1062,16 +1062,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>25749</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1085,16 +1085,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1108,27 +1108,27 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1140,7 +1140,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1151,27 +1151,27 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1186,15 +1186,15 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1209,7 +1209,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1220,30 +1220,30 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1255,7 +1255,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1266,30 +1266,30 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1301,7 +1301,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1312,30 +1312,30 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1347,21 +1347,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1370,18 +1370,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1393,41 +1393,41 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F31" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1439,41 +1439,41 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F33" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G33" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1485,64 +1485,64 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F35" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G35" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F36" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G36" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1554,18 +1554,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1577,41 +1577,41 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F39" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1623,67 +1623,67 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G41" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>25749</v>
+        <v>33125</v>
       </c>
       <c r="G42" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F43" s="24">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G43" s="24">
         <v>828116</v>
@@ -1692,7 +1692,7 @@
       <c r="I43" s="25"/>
       <c r="J43" s="26"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="32" t="s">
         <v>37</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="32" t="s">
         <v>36</v>
       </c>

--- a/Data/EC/NIT-9012560670.xlsx
+++ b/Data/EC/NIT-9012560670.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F47AD2-8F94-42A7-8BB1-DA47D223701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CEFD692-64E4-4A21-B875-91B9D382F922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F66153D-5652-437D-BDB5-3D8503CA7CAD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F42BD706-CE30-4285-B5B8-378D0E3116AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,61 +65,61 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047388104</t>
+  </si>
+  <si>
+    <t>ANA GABRIEL GAVALO EMITOLA</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>45523211</t>
   </si>
   <si>
     <t>KELLY NUÑEZ AVILA</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1047388104</t>
-  </si>
-  <si>
-    <t>ANA GABRIEL GAVALO EMITOLA</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -218,7 +218,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +433,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +477,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8638F170-73FA-22BA-48FE-4FCC705480EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B4C205-4017-2BEB-F3FB-92A860F65F30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D80E03-6765-4032-8FC9-B45F4863A22E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D326D61-432F-4C74-ABE8-F590064421A8}">
   <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1062,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25749</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1085,10 +1085,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1128,13 +1128,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1145,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1177,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1191,10 +1191,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1220,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1237,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1266,13 +1266,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1283,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1312,13 +1312,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G27" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1352,16 +1352,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1375,19 +1375,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1398,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1421,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1444,13 +1444,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1467,19 +1467,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1490,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1513,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F36" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1536,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1559,19 +1559,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F38" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1605,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1628,13 +1628,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1651,19 +1651,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>33125</v>
+        <v>25749</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1674,16 +1674,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F43" s="24">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G43" s="24">
         <v>828116</v>

--- a/Data/EC/NIT-9012560670.xlsx
+++ b/Data/EC/NIT-9012560670.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CEFD692-64E4-4A21-B875-91B9D382F922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDD38CA-86AE-4966-8BBD-7480912E3B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F42BD706-CE30-4285-B5B8-378D0E3116AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D20A763D-8667-4EBC-9F6C-2E2CC18882E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -233,7 +231,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,29 +427,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,19 +468,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B4C205-4017-2BEB-F3FB-92A860F65F30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6C233B-8200-8A85-EF42-974083622DEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D326D61-432F-4C74-ABE8-F590064421A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB46611F-8FCC-41C7-86CC-2F9FF9B190CD}">
   <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -907,49 +913,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -957,7 +963,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -973,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9012560670</v>
       </c>
@@ -989,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>935135</v>
       </c>
@@ -1058,18 +1064,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>33125</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>828116</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1081,18 +1087,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>33125</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>828116</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1104,18 +1110,18 @@
       <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>35112</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>877803</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1127,18 +1133,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>33125</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>828116</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1150,18 +1156,18 @@
       <c r="D20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>35112</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>877803</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1173,18 +1179,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>33125</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>828116</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1196,18 +1202,18 @@
       <c r="D22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>35112</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>877803</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1219,18 +1225,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>33125</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>828116</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1242,18 +1248,18 @@
       <c r="D24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>35112</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>877803</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1265,18 +1271,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>33125</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>828116</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1288,18 +1294,18 @@
       <c r="D26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>35112</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>877803</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1311,18 +1317,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>33125</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>828116</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1334,18 +1340,18 @@
       <c r="D28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>35112</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>877803</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1357,18 +1363,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>33125</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>828116</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1380,18 +1386,18 @@
       <c r="D30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>35112</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>877803</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1403,18 +1409,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>33125</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>828116</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1426,18 +1432,18 @@
       <c r="D32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>35112</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>877803</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1449,18 +1455,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>33125</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>828116</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1472,18 +1478,18 @@
       <c r="D34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>35112</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>877803</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1495,18 +1501,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>33125</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>828116</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1518,18 +1524,18 @@
       <c r="D36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>35112</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>877803</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1541,18 +1547,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>33125</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>828116</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1564,18 +1570,18 @@
       <c r="D38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>35112</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>877803</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1587,18 +1593,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>33125</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>828116</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1610,18 +1616,18 @@
       <c r="D40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>35112</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>877803</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1633,18 +1639,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>33125</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>828116</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1656,47 +1662,47 @@
       <c r="D42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>25749</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>877803</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="26">
         <v>24292</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="26">
         <v>828116</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="32"/>
+      <c r="C48" s="34"/>
       <c r="H48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1704,10 +1710,10 @@
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="32"/>
+      <c r="C49" s="34"/>
       <c r="H49" s="1" t="s">
         <v>38</v>
       </c>
